--- a/biology/Botanique/Forêt_au_Royaume-Uni/Forêt_au_Royaume-Uni.xlsx
+++ b/biology/Botanique/Forêt_au_Royaume-Uni/Forêt_au_Royaume-Uni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_au_Royaume-Uni</t>
+          <t>Forêt_au_Royaume-Uni</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt au Royaume-Uni occupe environ 12,9 % de la superficie du territoire. Le climat relativement doux et humide des îles britanniques est favorable à la pousse des arbres, cependant le Royaume-Uni est l'avant-dernier pays d'Europe pour le taux d'occupation par la forêt, juste devant la république d'Irlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_au_Royaume-Uni</t>
+          <t>Forêt_au_Royaume-Uni</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur les 31,380 km2 de forêts, environ 30 % est du domaine public et 70 % est du domaine privé.
-Pour les conifères, la répartition est la suivante[1] (en milliers d'hectares) :
+Pour les conifères, la répartition est la suivante (en milliers d'hectares) :
 Angleterre : 339
 Pays de Galles : 151
 Écosse : 1051
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_au_Royaume-Uni</t>
+          <t>Forêt_au_Royaume-Uni</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abattage a fortement augmenté pendant les deux guerres mondiales, alors que les importations étaient difficiles, et les forêts ne représentaient plus que 5 % du territoire en 1919. La Forestry Commission a alors établi une réserve stratégique, et le taux de couverture est remonté à 10,8 % en 1990, 11,5 % en 2000, 11,9 % en 2010[2] et à près de 13 % en 2014.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abattage a fortement augmenté pendant les deux guerres mondiales, alors que les importations étaient difficiles, et les forêts ne représentaient plus que 5 % du territoire en 1919. La Forestry Commission a alors établi une réserve stratégique, et le taux de couverture est remonté à 10,8 % en 1990, 11,5 % en 2000, 11,9 % en 2010 et à près de 13 % en 2014.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_au_Royaume-Uni</t>
+          <t>Forêt_au_Royaume-Uni</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Industrie du bois</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2013, le Royaume-Uni a produit 3 582 000 m3 de bois, et 4 561 000 tonnes de papier. La production n'est pas suffisante pour couvrir la demande intérieure.
 En 2008, le pays a importé pour 1,243 millions de £.
